--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.9574169788823</v>
+        <v>221.5442188199163</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.0668976557422</v>
+        <v>303.1265740303999</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.9145481251734</v>
+        <v>274.1965992458469</v>
       </c>
       <c r="AD2" t="n">
-        <v>184957.4169788823</v>
+        <v>221544.2188199163</v>
       </c>
       <c r="AE2" t="n">
-        <v>253066.8976557422</v>
+        <v>303126.5740303999</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658953764861409e-06</v>
+        <v>4.919760617456064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.714699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>228914.5481251734</v>
+        <v>274196.5992458469</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.1585674728623</v>
+        <v>154.4645173541977</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.0886942070255</v>
+        <v>211.3451671374814</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.0921591810089</v>
+        <v>191.1746810107456</v>
       </c>
       <c r="AD3" t="n">
-        <v>130158.5674728623</v>
+        <v>154464.5173541977</v>
       </c>
       <c r="AE3" t="n">
-        <v>178088.6942070255</v>
+        <v>211345.1671374814</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.553919715344398e-06</v>
+        <v>6.575681940849154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.27662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>161092.1591810089</v>
+        <v>191174.6810107456</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.002883840591</v>
+        <v>131.3940850679469</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.4060663047037</v>
+        <v>179.7791838878089</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.4332768188272</v>
+        <v>162.621310899276</v>
       </c>
       <c r="AD4" t="n">
-        <v>107002.8838405909</v>
+        <v>131394.085067947</v>
       </c>
       <c r="AE4" t="n">
-        <v>146406.0663047037</v>
+        <v>179779.1838878089</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.932419780195692e-06</v>
+        <v>7.276006157602515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>132433.2768188271</v>
+        <v>162621.3108992761</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.2245591649729</v>
+        <v>127.6157603923289</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.2363957956053</v>
+        <v>174.6095133787104</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.7569924074373</v>
+        <v>157.9450264878862</v>
       </c>
       <c r="AD5" t="n">
-        <v>103224.5591649729</v>
+        <v>127615.7603923289</v>
       </c>
       <c r="AE5" t="n">
-        <v>141236.3957956053</v>
+        <v>174609.5133787104</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.088189336508851e-06</v>
+        <v>7.564220619499346e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.718171296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>127756.9924074373</v>
+        <v>157945.0264878862</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.5085593345016</v>
+        <v>123.8997605618576</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.1520008892146</v>
+        <v>169.5251184723198</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.1578450149179</v>
+        <v>153.3458790953667</v>
       </c>
       <c r="AD6" t="n">
-        <v>99508.5593345016</v>
+        <v>123899.7605618576</v>
       </c>
       <c r="AE6" t="n">
-        <v>136152.0008892146</v>
+        <v>169525.1184723198</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.233927879586739e-06</v>
+        <v>7.833875080646921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.587962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>123157.8450149179</v>
+        <v>153345.8790953667</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.59395238928344</v>
+        <v>122.9851536166395</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.9005953171571</v>
+        <v>168.2737129002622</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.0258718342983</v>
+        <v>152.2139059147472</v>
       </c>
       <c r="AD7" t="n">
-        <v>98593.95238928344</v>
+        <v>122985.1536166395</v>
       </c>
       <c r="AE7" t="n">
-        <v>134900.5953171571</v>
+        <v>168273.7129002622</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.273841858952215e-06</v>
+        <v>7.90772639252878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.556134259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>122025.8718342983</v>
+        <v>152213.9059147472</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.89731414833476</v>
+        <v>121.1179231750986</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.5791800254958</v>
+        <v>165.718885833754</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.9260091599456</v>
+        <v>149.9029079577435</v>
       </c>
       <c r="AD8" t="n">
-        <v>96897.31414833476</v>
+        <v>121117.9231750986</v>
       </c>
       <c r="AE8" t="n">
-        <v>132579.1800254958</v>
+        <v>165718.885833754</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.342378362994249e-06</v>
+        <v>8.034536868852234e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.498263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>119926.0091599456</v>
+        <v>149902.9079577434</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.01269246720675</v>
+        <v>119.2333014939706</v>
       </c>
       <c r="AB9" t="n">
-        <v>130.0005574977371</v>
+        <v>163.1402633059954</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.593486747116</v>
+        <v>147.5703855449138</v>
       </c>
       <c r="AD9" t="n">
-        <v>95012.69246720675</v>
+        <v>119233.3014939706</v>
       </c>
       <c r="AE9" t="n">
-        <v>130000.5574977371</v>
+        <v>163140.2633059954</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.410442201491166e-06</v>
+        <v>8.160472790166561e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.446180555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>117593.486747116</v>
+        <v>147570.3855449139</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>94.54878032787956</v>
+        <v>118.7693893546434</v>
       </c>
       <c r="AB10" t="n">
-        <v>129.3658124423508</v>
+        <v>162.5055182506091</v>
       </c>
       <c r="AC10" t="n">
-        <v>117.0193208689453</v>
+        <v>146.9962196667431</v>
       </c>
       <c r="AD10" t="n">
-        <v>94548.78032787956</v>
+        <v>118769.3893546434</v>
       </c>
       <c r="AE10" t="n">
-        <v>129365.8124423508</v>
+        <v>162505.5182506091</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.425199870177612e-06</v>
+        <v>8.18777834100709e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.434606481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>117019.3208689453</v>
+        <v>146996.2196667431</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>93.56430052001593</v>
+        <v>117.7849095467798</v>
       </c>
       <c r="AB11" t="n">
-        <v>128.0188037370487</v>
+        <v>161.158509545307</v>
       </c>
       <c r="AC11" t="n">
-        <v>115.8008687839381</v>
+        <v>145.777767581736</v>
       </c>
       <c r="AD11" t="n">
-        <v>93564.30052001594</v>
+        <v>117784.9095467798</v>
       </c>
       <c r="AE11" t="n">
-        <v>128018.8037370487</v>
+        <v>161158.509545307</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.448097889918858e-06</v>
+        <v>8.230145672560366e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.417245370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>115800.8687839381</v>
+        <v>145777.767581736</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>92.80049636167107</v>
+        <v>117.0211053884349</v>
       </c>
       <c r="AB12" t="n">
-        <v>126.9737331909405</v>
+        <v>160.1134389991987</v>
       </c>
       <c r="AC12" t="n">
-        <v>114.8555383039844</v>
+        <v>144.8324371017823</v>
       </c>
       <c r="AD12" t="n">
-        <v>92800.49636167106</v>
+        <v>117021.1053884349</v>
       </c>
       <c r="AE12" t="n">
-        <v>126973.7331909405</v>
+        <v>160113.4389991987</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.468475026752812e-06</v>
+        <v>8.267848710731631e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.39988425925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>114855.5383039844</v>
+        <v>144832.4371017823</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>92.23401549009763</v>
+        <v>116.4546245168615</v>
       </c>
       <c r="AB13" t="n">
-        <v>126.1986490710818</v>
+        <v>159.3383548793401</v>
       </c>
       <c r="AC13" t="n">
-        <v>114.1544271246875</v>
+        <v>144.1313259224853</v>
       </c>
       <c r="AD13" t="n">
-        <v>92234.01549009763</v>
+        <v>116454.6245168615</v>
       </c>
       <c r="AE13" t="n">
-        <v>126198.6490710818</v>
+        <v>159338.3548793401</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.462382893060187e-06</v>
+        <v>8.25657666839177e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.405671296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>114154.4271246875</v>
+        <v>144131.3259224853</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>91.33974374335918</v>
+        <v>115.560352770123</v>
       </c>
       <c r="AB14" t="n">
-        <v>124.9750670147099</v>
+        <v>158.1147728229681</v>
       </c>
       <c r="AC14" t="n">
-        <v>113.047622022467</v>
+        <v>143.0245208202649</v>
       </c>
       <c r="AD14" t="n">
-        <v>91339.74374335918</v>
+        <v>115560.352770123</v>
       </c>
       <c r="AE14" t="n">
-        <v>124975.0670147099</v>
+        <v>158114.7728229681</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.486278762285569e-06</v>
+        <v>8.300790282742091e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.388310185185186</v>
       </c>
       <c r="AH14" t="n">
-        <v>113047.622022467</v>
+        <v>143024.5208202649</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>89.72368526562913</v>
+        <v>113.944294292393</v>
       </c>
       <c r="AB15" t="n">
-        <v>122.7639045100125</v>
+        <v>155.9036103182707</v>
       </c>
       <c r="AC15" t="n">
-        <v>111.0474897638312</v>
+        <v>141.0243885616291</v>
       </c>
       <c r="AD15" t="n">
-        <v>89723.68526562913</v>
+        <v>113944.294292393</v>
       </c>
       <c r="AE15" t="n">
-        <v>122763.9045100124</v>
+        <v>155903.6103182707</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.530026584405888e-06</v>
+        <v>8.381735207475761e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.353587962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>111047.4897638312</v>
+        <v>141024.388561629</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>89.83917929624933</v>
+        <v>114.0597883230131</v>
       </c>
       <c r="AB16" t="n">
-        <v>122.921928537944</v>
+        <v>156.0616343462022</v>
       </c>
       <c r="AC16" t="n">
-        <v>111.1904322003251</v>
+        <v>141.1673309981229</v>
       </c>
       <c r="AD16" t="n">
-        <v>89839.17929624932</v>
+        <v>114059.7883230131</v>
       </c>
       <c r="AE16" t="n">
-        <v>122921.928537944</v>
+        <v>156061.6343462022</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.530289176375397e-06</v>
+        <v>8.38222107136972e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.353587962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>111190.4322003251</v>
+        <v>141167.3309981229</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>89.88154037284502</v>
+        <v>114.1021493996088</v>
       </c>
       <c r="AB17" t="n">
-        <v>122.979888831781</v>
+        <v>156.1195946400392</v>
       </c>
       <c r="AC17" t="n">
-        <v>111.2428608450661</v>
+        <v>141.2197596428639</v>
       </c>
       <c r="AD17" t="n">
-        <v>89881.54037284502</v>
+        <v>114102.1493996088</v>
       </c>
       <c r="AE17" t="n">
-        <v>122979.888831781</v>
+        <v>156119.5946400392</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.528556069376633e-06</v>
+        <v>8.379014369669587e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.356481481481481</v>
       </c>
       <c r="AH17" t="n">
-        <v>111242.8608450661</v>
+        <v>141219.7596428639</v>
       </c>
     </row>
   </sheetData>
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.1143078880698</v>
+        <v>176.641821662055</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.4977509788885</v>
+        <v>241.689133285091</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.5035796574633</v>
+        <v>218.6226616172609</v>
       </c>
       <c r="AD2" t="n">
-        <v>153114.3078880698</v>
+        <v>176641.821662055</v>
       </c>
       <c r="AE2" t="n">
-        <v>209497.7509788884</v>
+        <v>241689.133285091</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134108388338162e-06</v>
+        <v>5.974094282637663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>189503.5796574633</v>
+        <v>218622.661617261</v>
       </c>
     </row>
     <row r="3">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.8221744671253</v>
+        <v>137.9426291561333</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.6858353000505</v>
+        <v>188.7391908106364</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.2589766328615</v>
+        <v>170.7261873368405</v>
       </c>
       <c r="AD3" t="n">
-        <v>102822.1744671253</v>
+        <v>137942.6291561333</v>
       </c>
       <c r="AE3" t="n">
-        <v>140685.8353000505</v>
+        <v>188739.1908106364</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950138134950729e-06</v>
+        <v>7.529572919509361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.978587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>127258.9766328615</v>
+        <v>170726.1873368405</v>
       </c>
     </row>
     <row r="4">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.00199263911897</v>
+        <v>117.5294169045531</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.6176734040186</v>
+        <v>160.8089332406728</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.3425831704115</v>
+        <v>145.4615543489826</v>
       </c>
       <c r="AD4" t="n">
-        <v>94001.99263911897</v>
+        <v>117529.4169045531</v>
       </c>
       <c r="AE4" t="n">
-        <v>128617.6734040186</v>
+        <v>160808.9332406727</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.335171611265194e-06</v>
+        <v>8.263506148504684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.625578703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>116342.5831704115</v>
+        <v>145461.5543489826</v>
       </c>
     </row>
     <row r="5">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.83350995339434</v>
+        <v>115.3609342188285</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.6506597267074</v>
+        <v>157.8419195633615</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.6587371142321</v>
+        <v>142.7777082928031</v>
       </c>
       <c r="AD5" t="n">
-        <v>91833.50995339434</v>
+        <v>115360.9342188285</v>
       </c>
       <c r="AE5" t="n">
-        <v>125650.6597267074</v>
+        <v>157841.9195633615</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.446275528164176e-06</v>
+        <v>8.475287361048134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.53587962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>113658.7371142321</v>
+        <v>142777.7082928031</v>
       </c>
     </row>
     <row r="6">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.95731578663225</v>
+        <v>113.3141478514742</v>
       </c>
       <c r="AB6" t="n">
-        <v>123.0835680958999</v>
+        <v>155.0414161577072</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.3366451057323</v>
+        <v>140.2444810016523</v>
       </c>
       <c r="AD6" t="n">
-        <v>89957.31578663224</v>
+        <v>113314.1478514742</v>
       </c>
       <c r="AE6" t="n">
-        <v>123083.5680958999</v>
+        <v>155041.4161577072</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.529019423243466e-06</v>
+        <v>8.633009995133061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.472222222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>111336.6451057323</v>
+        <v>140244.4810016523</v>
       </c>
     </row>
     <row r="7">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.24895143171226</v>
+        <v>111.6057834965542</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.7461086177834</v>
+        <v>152.7039566795906</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.2222694795615</v>
+        <v>138.1301053754815</v>
       </c>
       <c r="AD7" t="n">
-        <v>88248.95143171225</v>
+        <v>111605.7834965542</v>
       </c>
       <c r="AE7" t="n">
-        <v>120746.1086177834</v>
+        <v>152703.9566795907</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.598995875549524e-06</v>
+        <v>8.766395912862138e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.417245370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>109222.2694795615</v>
+        <v>138130.1053754815</v>
       </c>
     </row>
     <row r="8">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.9159046891525</v>
+        <v>110.2727367539945</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.9221752547424</v>
+        <v>150.8800233165496</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.572409756782</v>
+        <v>136.480245652702</v>
       </c>
       <c r="AD8" t="n">
-        <v>86915.90468915249</v>
+        <v>110272.7367539945</v>
       </c>
       <c r="AE8" t="n">
-        <v>118922.1752547424</v>
+        <v>150880.0233165496</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.644524033183434e-06</v>
+        <v>8.853179607782145e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>107572.409756782</v>
+        <v>136480.245652702</v>
       </c>
     </row>
     <row r="9">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>86.27209815315419</v>
+        <v>109.6289302179961</v>
       </c>
       <c r="AB9" t="n">
-        <v>118.0412907494501</v>
+        <v>149.9991388112574</v>
       </c>
       <c r="AC9" t="n">
-        <v>106.7755956323453</v>
+        <v>135.6834315282654</v>
       </c>
       <c r="AD9" t="n">
-        <v>86272.09815315419</v>
+        <v>109628.9302179961</v>
       </c>
       <c r="AE9" t="n">
-        <v>118041.2907494501</v>
+        <v>149999.1388112574</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.649522351205295e-06</v>
+        <v>8.86270717333422e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.37962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>106775.5956323453</v>
+        <v>135683.4315282654</v>
       </c>
     </row>
     <row r="10">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.04711166449543</v>
+        <v>108.4039437293374</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.3652101930783</v>
+        <v>148.3230582548856</v>
       </c>
       <c r="AC10" t="n">
-        <v>105.2594778518793</v>
+        <v>134.1673137477993</v>
       </c>
       <c r="AD10" t="n">
-        <v>85047.11166449543</v>
+        <v>108403.9437293374</v>
       </c>
       <c r="AE10" t="n">
-        <v>116365.2101930783</v>
+        <v>148323.0582548855</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.683804293290018e-06</v>
+        <v>8.928053845762054e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.356481481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>105259.4778518793</v>
+        <v>134167.3137477993</v>
       </c>
     </row>
     <row r="11">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>83.41952067463431</v>
+        <v>106.7763527394763</v>
       </c>
       <c r="AB11" t="n">
-        <v>114.1382683965046</v>
+        <v>146.0961164583119</v>
       </c>
       <c r="AC11" t="n">
-        <v>103.2450722548375</v>
+        <v>132.1529081507575</v>
       </c>
       <c r="AD11" t="n">
-        <v>83419.52067463432</v>
+        <v>106776.3527394763</v>
       </c>
       <c r="AE11" t="n">
-        <v>114138.2683965046</v>
+        <v>146096.1164583119</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.71781458765616e-06</v>
+        <v>8.992882715714228e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>103245.0722548375</v>
+        <v>132152.9081507575</v>
       </c>
     </row>
     <row r="12">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>82.74176455491066</v>
+        <v>106.0985966197526</v>
       </c>
       <c r="AB12" t="n">
-        <v>113.2109325730095</v>
+        <v>145.1687806348167</v>
       </c>
       <c r="AC12" t="n">
-        <v>102.4062400608124</v>
+        <v>131.3140759567324</v>
       </c>
       <c r="AD12" t="n">
-        <v>82741.76455491065</v>
+        <v>106098.5966197526</v>
       </c>
       <c r="AE12" t="n">
-        <v>113210.9325730095</v>
+        <v>145168.7806348167</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.756714540956733e-06</v>
+        <v>9.06703203022822e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.304398148148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>102406.2400608124</v>
+        <v>131314.0759567324</v>
       </c>
     </row>
   </sheetData>
@@ -7796,28 +7796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.80185601453523</v>
+        <v>97.72874099691673</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0836876578017</v>
+        <v>133.7167749196888</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.0546479936496</v>
+        <v>120.9550335940617</v>
       </c>
       <c r="AD2" t="n">
-        <v>76801.85601453524</v>
+        <v>97728.74099691672</v>
       </c>
       <c r="AE2" t="n">
-        <v>105083.6876578017</v>
+        <v>133716.7749196888</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.695257037784212e-06</v>
+        <v>9.999668727936436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>95054.64799364959</v>
+        <v>120955.0335940617</v>
       </c>
     </row>
     <row r="3">
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.59804737992314</v>
+        <v>91.35434016171241</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.59536299120897</v>
+        <v>124.9950384782493</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.37643711979527</v>
+        <v>113.0656874375564</v>
       </c>
       <c r="AD3" t="n">
-        <v>70598.04737992314</v>
+        <v>91354.34016171242</v>
       </c>
       <c r="AE3" t="n">
-        <v>96595.36299120897</v>
+        <v>124995.0384782493</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.149632839901639e-06</v>
+        <v>1.096737027496588e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.405671296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>87376.43711979527</v>
+        <v>113065.6874375564</v>
       </c>
     </row>
     <row r="4">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.03890080582092</v>
+        <v>77.50243280556271</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.72558163005969</v>
+        <v>106.0422477305517</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.97142085697149</v>
+        <v>95.92172443840414</v>
       </c>
       <c r="AD4" t="n">
-        <v>67038.90080582091</v>
+        <v>77502.43280556271</v>
       </c>
       <c r="AE4" t="n">
-        <v>91725.58163005969</v>
+        <v>106042.2477305517</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.380670355828193e-06</v>
+        <v>1.14594197206936e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.26099537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>82971.4208569715</v>
+        <v>95921.72443840414</v>
       </c>
     </row>
     <row r="5">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.91776928358458</v>
+        <v>77.38130128332638</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.55984413739044</v>
+        <v>105.8765102378824</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.82150111798849</v>
+        <v>95.77180469942114</v>
       </c>
       <c r="AD5" t="n">
-        <v>66917.76928358458</v>
+        <v>77381.30128332638</v>
       </c>
       <c r="AE5" t="n">
-        <v>91559.84413739044</v>
+        <v>105876.5102378824</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.382913438507091e-06</v>
+        <v>1.146419689977833e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.258101851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>82821.50111798849</v>
+        <v>95771.80469942113</v>
       </c>
     </row>
   </sheetData>
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7209431726598</v>
+        <v>126.5792839190396</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2838144107246</v>
+        <v>173.1913605418418</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.6090082635004</v>
+        <v>156.6622201673779</v>
       </c>
       <c r="AD2" t="n">
-        <v>104720.9431726598</v>
+        <v>126579.2839190396</v>
       </c>
       <c r="AE2" t="n">
-        <v>143283.8144107246</v>
+        <v>173191.3605418418</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023942266967699e-06</v>
+        <v>8.169994006193203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.169560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>129609.0082635003</v>
+        <v>156662.2201673778</v>
       </c>
     </row>
     <row r="3">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.27444080173669</v>
+        <v>103.2180328941371</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2032754801625</v>
+        <v>141.2274662639289</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.5901909431417</v>
+        <v>127.7489150977314</v>
       </c>
       <c r="AD3" t="n">
-        <v>81274.44080173669</v>
+        <v>103218.0328941371</v>
       </c>
       <c r="AE3" t="n">
-        <v>111203.2754801625</v>
+        <v>141227.4662639289</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.698968412729381e-06</v>
+        <v>9.540530460000859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.570601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>100590.1909431417</v>
+        <v>127748.9150977314</v>
       </c>
     </row>
     <row r="4">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.28947819857102</v>
+        <v>99.0624780903792</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.7508738423716</v>
+        <v>135.5416528512911</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.65815886516603</v>
+        <v>122.6057477371047</v>
       </c>
       <c r="AD4" t="n">
-        <v>77289.47819857101</v>
+        <v>99062.4780903792</v>
       </c>
       <c r="AE4" t="n">
-        <v>105750.8738423716</v>
+        <v>135541.6528512911</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.943251437555244e-06</v>
+        <v>1.003650945677359e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.394097222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>95658.15886516603</v>
+        <v>122605.7477371047</v>
       </c>
     </row>
     <row r="5">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.43872652482511</v>
+        <v>85.41061207957635</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.8503496360667</v>
+        <v>116.8625674974983</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.12989521468954</v>
+        <v>105.709368073211</v>
       </c>
       <c r="AD5" t="n">
-        <v>74438.72652482512</v>
+        <v>85410.61207957636</v>
       </c>
       <c r="AE5" t="n">
-        <v>101850.3496360667</v>
+        <v>116862.5674974983</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.097755231034848e-06</v>
+        <v>1.035020557439053e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.292824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>92129.89521468955</v>
+        <v>105709.368073211</v>
       </c>
     </row>
     <row r="6">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.01141548518996</v>
+        <v>83.98330103994118</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.89743970311986</v>
+        <v>114.9096575645514</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.36336826481623</v>
+        <v>103.9428411233377</v>
       </c>
       <c r="AD6" t="n">
-        <v>73011.41548518995</v>
+        <v>83983.30103994119</v>
       </c>
       <c r="AE6" t="n">
-        <v>99897.43970311986</v>
+        <v>114909.6575645514</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.132727373477867e-06</v>
+        <v>1.04212111145268e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>90363.36826481624</v>
+        <v>103942.8411233377</v>
       </c>
     </row>
     <row r="7">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.47944732481702</v>
+        <v>83.45133287956824</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.16957739731906</v>
+        <v>114.1817952587506</v>
       </c>
       <c r="AC7" t="n">
-        <v>89.70497211591966</v>
+        <v>103.2844449744411</v>
       </c>
       <c r="AD7" t="n">
-        <v>72479.44732481701</v>
+        <v>83451.33287956825</v>
       </c>
       <c r="AE7" t="n">
-        <v>99169.57739731907</v>
+        <v>114181.7952587506</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.162943768523991e-06</v>
+        <v>1.048256084323492e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.249421296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>89704.97211591966</v>
+        <v>103284.4449744411</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.10736975723989</v>
+        <v>88.2003463512266</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.18750798691376</v>
+        <v>120.6796050023581</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.29382301415438</v>
+        <v>109.162112875854</v>
       </c>
       <c r="AD2" t="n">
-        <v>68107.3697572399</v>
+        <v>88200.3463512266</v>
       </c>
       <c r="AE2" t="n">
-        <v>93187.50798691376</v>
+        <v>120679.6050023581</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.065497320292755e-06</v>
+        <v>1.127987311888518e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.596643518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>84293.82301415439</v>
+        <v>109162.112875854</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.23501447770628</v>
+        <v>72.28159228325067</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.1526924234292</v>
+        <v>98.89886340069975</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.02583897111177</v>
+        <v>89.46009468318816</v>
       </c>
       <c r="AD3" t="n">
-        <v>62235.01447770628</v>
+        <v>72281.59228325068</v>
       </c>
       <c r="AE3" t="n">
-        <v>85152.69242342919</v>
+        <v>98898.86340069976</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.547290010280327e-06</v>
+        <v>1.235273133379232e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.284143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>77025.83897111176</v>
+        <v>89460.09468318816</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.20538586267018</v>
+        <v>72.25196366821459</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.11215324521459</v>
+        <v>98.85832422248515</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.98916879516885</v>
+        <v>89.42342450724523</v>
       </c>
       <c r="AD4" t="n">
-        <v>62205.38586267018</v>
+        <v>72251.96366821458</v>
       </c>
       <c r="AE4" t="n">
-        <v>85112.15324521459</v>
+        <v>98858.32422248516</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.573608534119168e-06</v>
+        <v>1.241133754574098e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>76989.16879516885</v>
+        <v>89423.42450724523</v>
       </c>
     </row>
   </sheetData>
@@ -9747,28 +9747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.9202138978112</v>
+        <v>184.6747640615456</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.1781359536799</v>
+        <v>252.6801594644757</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.1646436802785</v>
+        <v>228.5647196840908</v>
       </c>
       <c r="AD2" t="n">
-        <v>160920.2138978112</v>
+        <v>184674.7640615456</v>
       </c>
       <c r="AE2" t="n">
-        <v>220178.1359536799</v>
+        <v>252680.1594644757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.998594955943006e-06</v>
+        <v>5.669634399612705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>199164.6436802785</v>
+        <v>228564.7196840908</v>
       </c>
     </row>
     <row r="3">
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.8213177296283</v>
+        <v>142.4905270387911</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.5765689441816</v>
+        <v>194.9618253327799</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0604893818414</v>
+        <v>176.354942353715</v>
       </c>
       <c r="AD3" t="n">
-        <v>118821.3177296283</v>
+        <v>142490.5270387911</v>
       </c>
       <c r="AE3" t="n">
-        <v>162576.5689441816</v>
+        <v>194961.8253327799</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.834538167584883e-06</v>
+        <v>7.250205453217051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>147060.4893818414</v>
+        <v>176354.942353715</v>
       </c>
     </row>
     <row r="4">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.70959154436277</v>
+        <v>121.4640521995461</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.6905737938903</v>
+        <v>166.1924748351378</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.9313330669358</v>
+        <v>150.3312982895217</v>
       </c>
       <c r="AD4" t="n">
-        <v>97709.59154436276</v>
+        <v>121464.0521995461</v>
       </c>
       <c r="AE4" t="n">
-        <v>133690.5737938903</v>
+        <v>166192.4748351378</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.203083271519487e-06</v>
+        <v>7.947037145985424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>120931.3330669359</v>
+        <v>150331.2982895217</v>
       </c>
     </row>
     <row r="5">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.62498583961941</v>
+        <v>118.3794464948028</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.4700801854632</v>
+        <v>161.9719812267107</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.1136374449957</v>
+        <v>146.5136026675815</v>
       </c>
       <c r="AD5" t="n">
-        <v>94624.98583961942</v>
+        <v>118379.4464948028</v>
       </c>
       <c r="AE5" t="n">
-        <v>129470.0801854632</v>
+        <v>161971.9812267107</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.351793509221075e-06</v>
+        <v>8.228213060583851e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.579282407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>117113.6374449957</v>
+        <v>146513.6026675815</v>
       </c>
     </row>
     <row r="6">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.717724751156</v>
+        <v>116.4721854063393</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.8604814218081</v>
+        <v>159.3623824630556</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.7530951247481</v>
+        <v>144.1530603473339</v>
       </c>
       <c r="AD6" t="n">
-        <v>92717.724751156</v>
+        <v>116472.1854063394</v>
       </c>
       <c r="AE6" t="n">
-        <v>126860.4814218081</v>
+        <v>159362.3824630555</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.434870951934165e-06</v>
+        <v>8.385292870947856e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.512731481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>114753.0951247481</v>
+        <v>144153.0603473339</v>
       </c>
     </row>
     <row r="7">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.47484982988601</v>
+        <v>115.0587182844772</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.1599251227556</v>
+        <v>157.4284143891563</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.214837532131</v>
+        <v>142.4036674720657</v>
       </c>
       <c r="AD7" t="n">
-        <v>91474.84982988601</v>
+        <v>115058.7182844772</v>
       </c>
       <c r="AE7" t="n">
-        <v>125159.9251227556</v>
+        <v>157428.4143891563</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.487527944139868e-06</v>
+        <v>8.484854798709355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.472222222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>113214.837532131</v>
+        <v>142403.6674720657</v>
       </c>
     </row>
     <row r="8">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.24015992645715</v>
+        <v>112.8240283810483</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.1023238093252</v>
+        <v>154.3708130757258</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.449049396683</v>
+        <v>139.6378793366177</v>
       </c>
       <c r="AD8" t="n">
-        <v>89240.15992645716</v>
+        <v>112824.0283810483</v>
       </c>
       <c r="AE8" t="n">
-        <v>122102.3238093252</v>
+        <v>154370.8130757258</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.574266609214907e-06</v>
+        <v>8.648857115298083e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.405671296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>110449.049396683</v>
+        <v>139637.8793366177</v>
       </c>
     </row>
     <row r="9">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.14477466513394</v>
+        <v>111.7286431197251</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.6035693697964</v>
+        <v>152.872058636197</v>
       </c>
       <c r="AC9" t="n">
-        <v>109.0933339773473</v>
+        <v>138.282163917282</v>
       </c>
       <c r="AD9" t="n">
-        <v>88144.77466513394</v>
+        <v>111728.6431197251</v>
       </c>
       <c r="AE9" t="n">
-        <v>120603.5693697964</v>
+        <v>152872.058636197</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.615509202292177e-06</v>
+        <v>8.726837111888381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.376736111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>109093.3339773473</v>
+        <v>138282.163917282</v>
       </c>
     </row>
     <row r="10">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.21998660912089</v>
+        <v>110.8038550637121</v>
       </c>
       <c r="AB10" t="n">
-        <v>119.3382335527904</v>
+        <v>151.606722819191</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.9487600348059</v>
+        <v>137.1375899747407</v>
       </c>
       <c r="AD10" t="n">
-        <v>87219.9866091209</v>
+        <v>110803.8550637121</v>
       </c>
       <c r="AE10" t="n">
-        <v>119338.2335527904</v>
+        <v>151606.7228191911</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.634515253671128e-06</v>
+        <v>8.762773063319678e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.362268518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>107948.7600348059</v>
+        <v>137137.5899747407</v>
       </c>
     </row>
     <row r="11">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.12179840254383</v>
+        <v>109.705666857135</v>
       </c>
       <c r="AB11" t="n">
-        <v>117.8356439999081</v>
+        <v>150.1041332663087</v>
       </c>
       <c r="AC11" t="n">
-        <v>106.5895755199525</v>
+        <v>135.7784054598873</v>
       </c>
       <c r="AD11" t="n">
-        <v>86121.79840254383</v>
+        <v>109705.666857135</v>
       </c>
       <c r="AE11" t="n">
-        <v>117835.6439999081</v>
+        <v>150104.1332663087</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.656428746337509e-06</v>
+        <v>8.804206299105907e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.344907407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>106589.5755199525</v>
+        <v>135778.4054598873</v>
       </c>
     </row>
     <row r="12">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>84.86173662906678</v>
+        <v>108.4456050836579</v>
       </c>
       <c r="AB12" t="n">
-        <v>116.1115718914356</v>
+        <v>148.3800611578362</v>
       </c>
       <c r="AC12" t="n">
-        <v>105.0300464337617</v>
+        <v>134.2188763736964</v>
       </c>
       <c r="AD12" t="n">
-        <v>84861.73662906679</v>
+        <v>108445.6050836579</v>
       </c>
       <c r="AE12" t="n">
-        <v>116111.5718914356</v>
+        <v>148380.0611578362</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.692287188882498e-06</v>
+        <v>8.872006139483369e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.318865740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>105030.0464337617</v>
+        <v>134218.8763736964</v>
       </c>
     </row>
     <row r="13">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>84.71748526223672</v>
+        <v>108.3013537168279</v>
       </c>
       <c r="AB13" t="n">
-        <v>115.9142008074176</v>
+        <v>148.1826900738182</v>
       </c>
       <c r="AC13" t="n">
-        <v>104.8515121689903</v>
+        <v>134.040342108925</v>
       </c>
       <c r="AD13" t="n">
-        <v>84717.48526223672</v>
+        <v>108301.3537168279</v>
       </c>
       <c r="AE13" t="n">
-        <v>115914.2008074176</v>
+        <v>148182.6900738182</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.673604186535484e-06</v>
+        <v>8.836680997424841e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>104851.5121689903</v>
+        <v>134040.342108925</v>
       </c>
     </row>
     <row r="14">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>84.84671413654826</v>
+        <v>108.4305825911394</v>
       </c>
       <c r="AB14" t="n">
-        <v>116.0910174544261</v>
+        <v>148.3595067208267</v>
       </c>
       <c r="AC14" t="n">
-        <v>105.0114536833721</v>
+        <v>134.2002836233068</v>
       </c>
       <c r="AD14" t="n">
-        <v>84846.71413654825</v>
+        <v>108430.5825911394</v>
       </c>
       <c r="AE14" t="n">
-        <v>116091.0174544261</v>
+        <v>148359.5067208267</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.670696745248052e-06</v>
+        <v>8.831183713069911e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.336226851851852</v>
       </c>
       <c r="AH14" t="n">
-        <v>105011.4536833721</v>
+        <v>134200.2836233068</v>
       </c>
     </row>
   </sheetData>
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.0435087034594</v>
+        <v>81.47209447246446</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.89066577446627</v>
+        <v>111.4737139523167</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.78881977776906</v>
+        <v>100.8348191470764</v>
       </c>
       <c r="AD2" t="n">
-        <v>62043.5087034594</v>
+        <v>81472.09447246447</v>
       </c>
       <c r="AE2" t="n">
-        <v>84890.66577446627</v>
+        <v>111473.7139523167</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.400246647904877e-06</v>
+        <v>1.238042589698059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.451967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>76788.81977776907</v>
+        <v>100834.8191470764</v>
       </c>
     </row>
     <row r="3">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.62864435955555</v>
+        <v>79.05723012856062</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.58654184284279</v>
+        <v>108.1695900206932</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.80003679681163</v>
+        <v>97.84603616611889</v>
       </c>
       <c r="AD3" t="n">
-        <v>59628.64435955555</v>
+        <v>79057.23012856062</v>
       </c>
       <c r="AE3" t="n">
-        <v>81586.54184284279</v>
+        <v>108169.5900206932</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.627767211492942e-06</v>
+        <v>1.290203197559074e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.313078703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>73800.03679681162</v>
+        <v>97846.03616611889</v>
       </c>
     </row>
   </sheetData>
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.0122089786053</v>
+        <v>144.8881311664906</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.9424871232166</v>
+        <v>198.2423330751257</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.0097304574753</v>
+        <v>179.3223630413538</v>
       </c>
       <c r="AD2" t="n">
-        <v>122012.2089786053</v>
+        <v>144888.1311664906</v>
       </c>
       <c r="AE2" t="n">
-        <v>166942.4871232166</v>
+        <v>198242.3330751256</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.541002563176633e-06</v>
+        <v>6.940316087403841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>151009.7304574753</v>
+        <v>179322.3630413538</v>
       </c>
     </row>
     <row r="3">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.78952354438022</v>
+        <v>114.5801048776939</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.5904755813509</v>
+        <v>156.7735544110624</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.6042968592394</v>
+        <v>141.8113064111792</v>
       </c>
       <c r="AD3" t="n">
-        <v>91789.52354438022</v>
+        <v>114580.1048776939</v>
       </c>
       <c r="AE3" t="n">
-        <v>125590.4755813509</v>
+        <v>156773.5544110624</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303679177149058e-06</v>
+        <v>8.435151710649187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.764467592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>113604.2968592394</v>
+        <v>141811.3064111792</v>
       </c>
     </row>
     <row r="4">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.78827742516563</v>
+        <v>109.5788587584793</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.7475500016381</v>
+        <v>149.9306288313496</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.4144504927459</v>
+        <v>135.6214600446856</v>
       </c>
       <c r="AD4" t="n">
-        <v>86788.27742516564</v>
+        <v>109578.8587584793</v>
       </c>
       <c r="AE4" t="n">
-        <v>118747.5500016381</v>
+        <v>149930.6288313496</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.569678389596541e-06</v>
+        <v>8.956506490954648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.544560185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>107414.4504927459</v>
+        <v>135621.4600446856</v>
       </c>
     </row>
     <row r="5">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.26265685741953</v>
+        <v>106.882645990141</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.291884518334</v>
+        <v>146.2415515731986</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.2885888731102</v>
+        <v>132.2844631423989</v>
       </c>
       <c r="AD5" t="n">
-        <v>84262.65685741953</v>
+        <v>106882.645990141</v>
       </c>
       <c r="AE5" t="n">
-        <v>115291.884518334</v>
+        <v>146241.5515731986</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.691426766505901e-06</v>
+        <v>9.195131627142436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.451967592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>104288.5888731102</v>
+        <v>132284.4631423989</v>
       </c>
     </row>
     <row r="6">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.48794438436214</v>
+        <v>105.1079335170836</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.8636446179095</v>
+        <v>143.8133116727742</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.0920967807254</v>
+        <v>130.0879710500141</v>
       </c>
       <c r="AD6" t="n">
-        <v>82487.94438436214</v>
+        <v>105107.9335170836</v>
       </c>
       <c r="AE6" t="n">
-        <v>112863.6446179095</v>
+        <v>143813.3116727742</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.773991757743283e-06</v>
+        <v>9.356957868924962e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.394097222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>102092.0967807254</v>
+        <v>130087.9710500141</v>
       </c>
     </row>
     <row r="7">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.14399591059424</v>
+        <v>102.7639850433157</v>
       </c>
       <c r="AB7" t="n">
-        <v>109.6565509083934</v>
+        <v>140.606217963258</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.19108359366015</v>
+        <v>127.1869578629489</v>
       </c>
       <c r="AD7" t="n">
-        <v>80143.99591059424</v>
+        <v>102763.9850433157</v>
       </c>
       <c r="AE7" t="n">
-        <v>109656.5509083934</v>
+        <v>140606.217963258</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.87139045927077e-06</v>
+        <v>9.547857977875192e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.324652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>99191.08359366015</v>
+        <v>127186.9578629489</v>
       </c>
     </row>
     <row r="8">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.553142808668</v>
+        <v>89.94852298387586</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.4798755108534</v>
+        <v>123.0715373952576</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.2221470410776</v>
+        <v>111.325762598274</v>
       </c>
       <c r="AD8" t="n">
-        <v>78553.142808668</v>
+        <v>89948.52298387587</v>
       </c>
       <c r="AE8" t="n">
-        <v>107479.8755108534</v>
+        <v>123071.5373952576</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.919809928708285e-06</v>
+        <v>9.642759468818841e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.292824074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>97222.14704107761</v>
+        <v>111325.762598274</v>
       </c>
     </row>
     <row r="9">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.77598893599864</v>
+        <v>89.17136911120653</v>
       </c>
       <c r="AB9" t="n">
-        <v>106.4165392966587</v>
+        <v>122.0082011810628</v>
       </c>
       <c r="AC9" t="n">
-        <v>96.2602941427635</v>
+        <v>110.3639096999599</v>
       </c>
       <c r="AD9" t="n">
-        <v>77775.98893599864</v>
+        <v>89171.36911120653</v>
       </c>
       <c r="AE9" t="n">
-        <v>106416.5392966587</v>
+        <v>122008.2011810628</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.946734512291459e-06</v>
+        <v>9.695531280545888e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.275462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>96260.29414276349</v>
+        <v>110363.9096999599</v>
       </c>
     </row>
     <row r="10">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>77.95246243695424</v>
+        <v>89.34784261216211</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.6579981261274</v>
+        <v>122.2496600105315</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.47870848043738</v>
+        <v>110.5823240376338</v>
       </c>
       <c r="AD10" t="n">
-        <v>77952.46243695423</v>
+        <v>89347.84261216212</v>
       </c>
       <c r="AE10" t="n">
-        <v>106657.9981261273</v>
+        <v>122249.6600105315</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.942088482276068e-06</v>
+        <v>9.686425125923549e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.278356481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>96478.70848043737</v>
+        <v>110582.3240376338</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.2266925300012</v>
+        <v>170.0789834734428</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0231265000968</v>
+        <v>232.7095685434496</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.3647789885686</v>
+        <v>210.5000939316607</v>
       </c>
       <c r="AD2" t="n">
-        <v>135226.6925300012</v>
+        <v>170078.9834734428</v>
       </c>
       <c r="AE2" t="n">
-        <v>185023.1265000968</v>
+        <v>232709.5685434496</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.247626637761162e-06</v>
+        <v>6.244221743133519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>167364.7789885686</v>
+        <v>210500.0939316607</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.06246240453096</v>
+        <v>122.3542169365398</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.5416313892215</v>
+        <v>167.4104374995885</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.6057283233449</v>
+        <v>151.4330203066989</v>
       </c>
       <c r="AD3" t="n">
-        <v>99062.46240453096</v>
+        <v>122354.2169365398</v>
       </c>
       <c r="AE3" t="n">
-        <v>135541.6313892215</v>
+        <v>167410.4374995885</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.063399911143463e-06</v>
+        <v>7.812711529457158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>122605.7283233449</v>
+        <v>151433.0203066989</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.37488849736407</v>
+        <v>115.6666430293729</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.3913977345021</v>
+        <v>158.260203844869</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.3287801261954</v>
+        <v>143.1560721095494</v>
       </c>
       <c r="AD4" t="n">
-        <v>92374.88849736407</v>
+        <v>115666.6430293729</v>
       </c>
       <c r="AE4" t="n">
-        <v>126391.3977345021</v>
+        <v>158260.203844869</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.372564489740748e-06</v>
+        <v>8.407143217335761e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>114328.7801261954</v>
+        <v>143156.0721095494</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.97503808839899</v>
+        <v>112.0962004198156</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.7395724141442</v>
+        <v>153.3749667496643</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.1209184855331</v>
+        <v>138.7370751862361</v>
       </c>
       <c r="AD5" t="n">
-        <v>88975.03808839899</v>
+        <v>112096.2004198156</v>
       </c>
       <c r="AE5" t="n">
-        <v>121739.5724141442</v>
+        <v>153374.9667496643</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.546260466398119e-06</v>
+        <v>8.741109006853508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.489583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>110120.9184855331</v>
+        <v>138737.0751862361</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.11150135727839</v>
+        <v>110.232663688695</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.189799245188</v>
+        <v>150.8251935807081</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.8144920891922</v>
+        <v>136.4306487898951</v>
       </c>
       <c r="AD6" t="n">
-        <v>87111.50135727838</v>
+        <v>110232.663688695</v>
       </c>
       <c r="AE6" t="n">
-        <v>119189.799245188</v>
+        <v>150825.1935807081</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.629296686372625e-06</v>
+        <v>8.900763002852834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.428819444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>107814.4920891922</v>
+        <v>136430.6487898951</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.68066352453729</v>
+        <v>108.8018258559539</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.2320637983225</v>
+        <v>148.8674581338426</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.043600165676</v>
+        <v>134.6597568663789</v>
       </c>
       <c r="AD7" t="n">
-        <v>85680.66352453729</v>
+        <v>108801.8258559539</v>
       </c>
       <c r="AE7" t="n">
-        <v>117232.0637983225</v>
+        <v>148867.4581338426</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.673118311048735e-06</v>
+        <v>8.985018975642439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.396990740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>106043.600165676</v>
+        <v>134659.7568663789</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.42186012698869</v>
+        <v>107.5430224584053</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.5097134553109</v>
+        <v>147.145107790831</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.485628522067</v>
+        <v>133.1017852227699</v>
       </c>
       <c r="AD8" t="n">
-        <v>84421.86012698869</v>
+        <v>107543.0224584053</v>
       </c>
       <c r="AE8" t="n">
-        <v>115509.7134553109</v>
+        <v>147145.107790831</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.72072428128511e-06</v>
+        <v>9.076551121301235e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.362268518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>104485.628522067</v>
+        <v>133101.7852227699</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.81536358406106</v>
+        <v>105.9365259154777</v>
       </c>
       <c r="AB9" t="n">
-        <v>113.311634011653</v>
+        <v>144.9470283471731</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.4973306954872</v>
+        <v>131.1134873961901</v>
       </c>
       <c r="AD9" t="n">
-        <v>82815.36358406107</v>
+        <v>105936.5259154777</v>
       </c>
       <c r="AE9" t="n">
-        <v>113311.634011653</v>
+        <v>144947.0283471731</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.778092766155211e-06</v>
+        <v>9.186853683926926e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.32175925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>102497.3306954872</v>
+        <v>131113.4873961901</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.75923436475608</v>
+        <v>104.8803966961727</v>
       </c>
       <c r="AB10" t="n">
-        <v>111.8665914206679</v>
+        <v>143.5019857561879</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.1902009412552</v>
+        <v>129.8063576419581</v>
       </c>
       <c r="AD10" t="n">
-        <v>81759.23436475608</v>
+        <v>104880.3966961727</v>
       </c>
       <c r="AE10" t="n">
-        <v>111866.5914206679</v>
+        <v>143501.9857561879</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.795259435145978e-06</v>
+        <v>9.219860091290062e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.310185185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>101190.2009412552</v>
+        <v>129806.3576419581</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.91232073127696</v>
+        <v>92.55828750583242</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.7078068241498</v>
+        <v>126.6423323488816</v>
       </c>
       <c r="AC11" t="n">
-        <v>100.142009120264</v>
+        <v>114.5557658931676</v>
       </c>
       <c r="AD11" t="n">
-        <v>80912.32073127697</v>
+        <v>92558.28750583243</v>
       </c>
       <c r="AE11" t="n">
-        <v>110707.8068241498</v>
+        <v>126642.3323488816</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.81593622175786e-06</v>
+        <v>9.259615412618825e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.295717592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>100142.009120264</v>
+        <v>114555.7658931676</v>
       </c>
     </row>
   </sheetData>
@@ -14115,28 +14115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.7793681107318</v>
+        <v>213.0579344288399</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.8773304042915</v>
+        <v>291.5152653380907</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.7928974675414</v>
+        <v>263.6934575585538</v>
       </c>
       <c r="AD2" t="n">
-        <v>176779.3681107318</v>
+        <v>213057.9344288399</v>
       </c>
       <c r="AE2" t="n">
-        <v>241877.3304042915</v>
+        <v>291515.2653380907</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763216677868734e-06</v>
+        <v>5.147663090765046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>218792.8974675414</v>
+        <v>263693.4575585538</v>
       </c>
     </row>
     <row r="3">
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.3393650618308</v>
+        <v>153.439824594549</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.9678253275931</v>
+        <v>209.9431372974767</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.0782644542799</v>
+        <v>189.9064589309092</v>
       </c>
       <c r="AD3" t="n">
-        <v>129339.3650618308</v>
+        <v>153439.824594549</v>
       </c>
       <c r="AE3" t="n">
-        <v>176967.8253275931</v>
+        <v>209943.1372974766</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.571477540326343e-06</v>
+        <v>6.653391773827305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>160078.2644542799</v>
+        <v>189906.4589309092</v>
       </c>
     </row>
     <row r="4">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.0507959800549</v>
+        <v>128.2365068587937</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.3668894569956</v>
+        <v>175.4588460795284</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.7795933404427</v>
+        <v>158.7133000677843</v>
       </c>
       <c r="AD4" t="n">
-        <v>104050.7959800549</v>
+        <v>128236.5068587937</v>
       </c>
       <c r="AE4" t="n">
-        <v>142366.8894569956</v>
+        <v>175458.8460795284</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.014041124957311e-06</v>
+        <v>7.477854165129406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.816550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>128779.5933404427</v>
+        <v>158713.3000677843</v>
       </c>
     </row>
     <row r="5">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.3705584912499</v>
+        <v>124.5562693699886</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.3314261641959</v>
+        <v>170.4233827867287</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.2247075969891</v>
+        <v>154.1584143243307</v>
       </c>
       <c r="AD5" t="n">
-        <v>100370.5584912499</v>
+        <v>124556.2693699886</v>
       </c>
       <c r="AE5" t="n">
-        <v>137331.4261641959</v>
+        <v>170423.3827867287</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.172220549703404e-06</v>
+        <v>7.772530436087623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>124224.7075969891</v>
+        <v>154158.4143243307</v>
       </c>
     </row>
     <row r="6">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.73741307670406</v>
+        <v>121.9231239554428</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.728640441839</v>
+        <v>166.8205970643718</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.9657666874313</v>
+        <v>150.8994734147729</v>
       </c>
       <c r="AD6" t="n">
-        <v>97737.41307670406</v>
+        <v>121923.1239554428</v>
       </c>
       <c r="AE6" t="n">
-        <v>133728.6404418391</v>
+        <v>166820.5970643718</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.283920210417679e-06</v>
+        <v>7.980618431978464e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>120965.7666874313</v>
+        <v>150899.4734147729</v>
       </c>
     </row>
     <row r="7">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.78859787321187</v>
+        <v>119.9743087519506</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.0621855047634</v>
+        <v>164.1541421272962</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.5537944671563</v>
+        <v>148.4875011944979</v>
       </c>
       <c r="AD7" t="n">
-        <v>95788.59787321187</v>
+        <v>119974.3087519506</v>
       </c>
       <c r="AE7" t="n">
-        <v>131062.1855047634</v>
+        <v>164154.1421272962</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.363327552157685e-06</v>
+        <v>8.128548286877166e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.509837962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>118553.7944671563</v>
+        <v>148487.5011944979</v>
       </c>
     </row>
     <row r="8">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.79069698004756</v>
+        <v>118.8058156581941</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.6968134784564</v>
+        <v>162.5553583261423</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.3187316307279</v>
+        <v>147.0413030754185</v>
       </c>
       <c r="AD8" t="n">
-        <v>94790.69698004756</v>
+        <v>118805.8156581941</v>
       </c>
       <c r="AE8" t="n">
-        <v>129696.8134784564</v>
+        <v>162555.3583261423</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.398372658978941e-06</v>
+        <v>8.193834662839127e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>117318.7316307279</v>
+        <v>147041.3030754185</v>
       </c>
     </row>
     <row r="9">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>93.42817321374352</v>
+        <v>117.4432918918901</v>
       </c>
       <c r="AB9" t="n">
-        <v>127.8325483510939</v>
+        <v>160.6910931987799</v>
       </c>
       <c r="AC9" t="n">
-        <v>115.6323893506078</v>
+        <v>145.3549607952983</v>
       </c>
       <c r="AD9" t="n">
-        <v>93428.17321374352</v>
+        <v>117443.2918918901</v>
       </c>
       <c r="AE9" t="n">
-        <v>127832.548351094</v>
+        <v>160691.0931987799</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.445381805289024e-06</v>
+        <v>8.281409136939157e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.446180555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>115632.3893506078</v>
+        <v>145354.9607952983</v>
       </c>
     </row>
     <row r="10">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>92.14972636171419</v>
+        <v>116.1648450398607</v>
       </c>
       <c r="AB10" t="n">
-        <v>126.0833209670538</v>
+        <v>158.9418658147397</v>
       </c>
       <c r="AC10" t="n">
-        <v>114.0501057730438</v>
+        <v>143.7726772177343</v>
       </c>
       <c r="AD10" t="n">
-        <v>92149.72636171419</v>
+        <v>116164.8450398607</v>
       </c>
       <c r="AE10" t="n">
-        <v>126083.3209670538</v>
+        <v>158941.8658147397</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.487573572866881e-06</v>
+        <v>8.360009199842002e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.414351851851853</v>
       </c>
       <c r="AH10" t="n">
-        <v>114050.1057730438</v>
+        <v>143772.6772177343</v>
       </c>
     </row>
     <row r="11">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>91.04205821850817</v>
+        <v>115.0571768966547</v>
       </c>
       <c r="AB11" t="n">
-        <v>124.5677605466504</v>
+        <v>157.4263053943363</v>
       </c>
       <c r="AC11" t="n">
-        <v>112.6791883120608</v>
+        <v>142.4017597567514</v>
       </c>
       <c r="AD11" t="n">
-        <v>91042.05821850817</v>
+        <v>115057.1768966547</v>
       </c>
       <c r="AE11" t="n">
-        <v>124567.7605466504</v>
+        <v>157426.3053943363</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.517642486272429e-06</v>
+        <v>8.416025304896977e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.391203703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>112679.1883120608</v>
+        <v>142401.7597567514</v>
       </c>
     </row>
     <row r="12">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>90.2798958072061</v>
+        <v>114.2950144853527</v>
       </c>
       <c r="AB12" t="n">
-        <v>123.524936311275</v>
+        <v>156.3834811589609</v>
       </c>
       <c r="AC12" t="n">
-        <v>111.7358897580963</v>
+        <v>141.4584612027868</v>
       </c>
       <c r="AD12" t="n">
-        <v>90279.89580720611</v>
+        <v>114295.0144853527</v>
       </c>
       <c r="AE12" t="n">
-        <v>123524.936311275</v>
+        <v>156383.4811589609</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.533259263481298e-06</v>
+        <v>8.445118176360388e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.37962962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>111735.8897580963</v>
+        <v>141458.4612027868</v>
       </c>
     </row>
     <row r="13">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>89.30397504448028</v>
+        <v>113.3190937226268</v>
       </c>
       <c r="AB13" t="n">
-        <v>122.1896384691287</v>
+        <v>155.0481833168147</v>
       </c>
       <c r="AC13" t="n">
-        <v>110.5280308679018</v>
+        <v>140.2506023125923</v>
       </c>
       <c r="AD13" t="n">
-        <v>89303.97504448028</v>
+        <v>113319.0937226268</v>
       </c>
       <c r="AE13" t="n">
-        <v>122189.6384691287</v>
+        <v>155048.1833168147</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.5578755394207e-06</v>
+        <v>8.490976431378986e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>110528.0308679018</v>
+        <v>140250.6023125924</v>
       </c>
     </row>
     <row r="14">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>88.60969908370483</v>
+        <v>112.6248177618514</v>
       </c>
       <c r="AB14" t="n">
-        <v>121.2396994703026</v>
+        <v>154.0982443179885</v>
       </c>
       <c r="AC14" t="n">
-        <v>109.6687527138755</v>
+        <v>139.3913241585661</v>
       </c>
       <c r="AD14" t="n">
-        <v>88609.69908370482</v>
+        <v>112624.8177618514</v>
       </c>
       <c r="AE14" t="n">
-        <v>121239.6994703026</v>
+        <v>154098.2443179885</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.559040180432887e-06</v>
+        <v>8.493146069250835e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH14" t="n">
-        <v>109668.7527138755</v>
+        <v>139391.3241585661</v>
       </c>
     </row>
     <row r="15">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>87.98780252543632</v>
+        <v>112.0029212035829</v>
       </c>
       <c r="AB15" t="n">
-        <v>120.3887931631402</v>
+        <v>153.2473380108262</v>
       </c>
       <c r="AC15" t="n">
-        <v>108.899055710414</v>
+        <v>138.6216271551045</v>
       </c>
       <c r="AD15" t="n">
-        <v>87987.80252543632</v>
+        <v>112002.9212035829</v>
       </c>
       <c r="AE15" t="n">
-        <v>120388.7931631402</v>
+        <v>153247.3380108261</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.580638977386168e-06</v>
+        <v>8.533382989783281e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.344907407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>108899.055710414</v>
+        <v>138621.6271551045</v>
       </c>
     </row>
     <row r="16">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>88.03112444776382</v>
+        <v>112.0462431259104</v>
       </c>
       <c r="AB16" t="n">
-        <v>120.448068128497</v>
+        <v>153.3066129761829</v>
       </c>
       <c r="AC16" t="n">
-        <v>108.95267355627</v>
+        <v>138.6752450009606</v>
       </c>
       <c r="AD16" t="n">
-        <v>88031.12444776381</v>
+        <v>112046.2431259104</v>
       </c>
       <c r="AE16" t="n">
-        <v>120448.068128497</v>
+        <v>153306.6129761829</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.582280062448795e-06</v>
+        <v>8.536440206784522e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.342013888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>108952.67355627</v>
+        <v>138675.2450009606</v>
       </c>
     </row>
   </sheetData>
@@ -15896,28 +15896,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2500133041972</v>
+        <v>132.4057289363944</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.8489320900492</v>
+        <v>181.1633596591956</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.4521217292219</v>
+        <v>163.873382877745</v>
       </c>
       <c r="AD2" t="n">
-        <v>110250.0133041972</v>
+        <v>132405.7289363944</v>
       </c>
       <c r="AE2" t="n">
-        <v>150848.9320900492</v>
+        <v>181163.3596591956</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854399925477769e-06</v>
+        <v>7.726134455595012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>136452.121729222</v>
+        <v>163873.382877745</v>
       </c>
     </row>
     <row r="3">
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.84969550312576</v>
+        <v>107.0906624813435</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.095096691706</v>
+        <v>146.5261689135017</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.0151436039713</v>
+        <v>132.5419170032065</v>
       </c>
       <c r="AD3" t="n">
-        <v>84849.69550312575</v>
+        <v>107090.6624813435</v>
       </c>
       <c r="AE3" t="n">
-        <v>116095.096691706</v>
+        <v>146526.1689135017</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.557803142141978e-06</v>
+        <v>9.136104342871844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.637152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>105015.1436039713</v>
+        <v>132541.9170032065</v>
       </c>
     </row>
     <row r="4">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.31931127640358</v>
+        <v>102.3896860540292</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.8964251262617</v>
+        <v>140.0940855732104</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.40806455284073</v>
+        <v>126.7237026694249</v>
       </c>
       <c r="AD4" t="n">
-        <v>80319.31127640358</v>
+        <v>102389.6860540292</v>
       </c>
       <c r="AE4" t="n">
-        <v>109896.4251262617</v>
+        <v>140094.0855732104</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.818558299728051e-06</v>
+        <v>9.658787366546441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.440393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>99408.06455284073</v>
+        <v>126723.7026694249</v>
       </c>
     </row>
     <row r="5">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.01240460506997</v>
+        <v>100.0827793826955</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.7400136450051</v>
+        <v>136.9376740919539</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.55289655330294</v>
+        <v>123.8685346698872</v>
       </c>
       <c r="AD5" t="n">
-        <v>78012.40460506997</v>
+        <v>100082.7793826955</v>
       </c>
       <c r="AE5" t="n">
-        <v>106740.0136450051</v>
+        <v>136937.6740919538</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.935047645330967e-06</v>
+        <v>9.892289951689015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.356481481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>96552.89655330294</v>
+        <v>123868.5346698872</v>
       </c>
     </row>
     <row r="6">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.9761921197892</v>
+        <v>87.09676511744914</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.9539778912905</v>
+        <v>119.1696364717367</v>
       </c>
       <c r="AC6" t="n">
-        <v>94.03275614169624</v>
+        <v>107.7962536225404</v>
       </c>
       <c r="AD6" t="n">
-        <v>75976.19211978921</v>
+        <v>87096.76511744913</v>
       </c>
       <c r="AE6" t="n">
-        <v>103953.9778912905</v>
+        <v>119169.6364717367</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.029144004635583e-06</v>
+        <v>1.008090585502689e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.295717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>94032.75614169624</v>
+        <v>107796.2536225404</v>
       </c>
     </row>
     <row r="7">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.41017532639147</v>
+        <v>85.53074832405142</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.8112846267798</v>
+        <v>117.026943207226</v>
       </c>
       <c r="AC7" t="n">
-        <v>92.0945585150609</v>
+        <v>105.8580559959051</v>
       </c>
       <c r="AD7" t="n">
-        <v>74410.17532639147</v>
+        <v>85530.74832405141</v>
       </c>
       <c r="AE7" t="n">
-        <v>101811.2846267798</v>
+        <v>117026.943207226</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.077996222825989e-06</v>
+        <v>1.01788299971737e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>92094.5585150609</v>
+        <v>105858.0559959051</v>
       </c>
     </row>
     <row r="8">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.3979366203434</v>
+        <v>85.51850961800335</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7945390892313</v>
+        <v>117.0101976696775</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.07941114811346</v>
+        <v>105.8429086289577</v>
       </c>
       <c r="AD8" t="n">
-        <v>74397.9366203434</v>
+        <v>85518.50961800334</v>
       </c>
       <c r="AE8" t="n">
-        <v>101794.5390892313</v>
+        <v>117010.1976696775</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.069233749926655e-06</v>
+        <v>1.016126564342404e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>92079.41114811346</v>
+        <v>105842.9086289577</v>
       </c>
     </row>
   </sheetData>
@@ -16829,28 +16829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.3656710156107</v>
+        <v>103.6561690293545</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.6963448004636</v>
+        <v>141.8269434533352</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.9407638230497</v>
+        <v>128.2911790255525</v>
       </c>
       <c r="AD2" t="n">
-        <v>82365.6710156107</v>
+        <v>103656.1690293545</v>
       </c>
       <c r="AE2" t="n">
-        <v>112696.3448004636</v>
+        <v>141826.9434533352</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.44734468503127e-06</v>
+        <v>9.304123208757917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101940.7638230497</v>
+        <v>128291.1790255525</v>
       </c>
     </row>
     <row r="3">
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.54379920736042</v>
+        <v>94.66370502051203</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6258705989053</v>
+        <v>129.5230574769301</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.02227873826735</v>
+        <v>117.1615586581191</v>
       </c>
       <c r="AD3" t="n">
-        <v>73543.79920736043</v>
+        <v>94663.70502051203</v>
       </c>
       <c r="AE3" t="n">
-        <v>100625.8705989053</v>
+        <v>129523.0574769301</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.043501730659824e-06</v>
+        <v>1.055132103063265e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.423032407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>91022.27873826734</v>
+        <v>117161.5586581191</v>
       </c>
     </row>
     <row r="4">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.85859816854573</v>
+        <v>91.97850398169733</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.95186007489174</v>
+        <v>125.8490469529165</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.69891062215829</v>
+        <v>113.8381905420101</v>
       </c>
       <c r="AD4" t="n">
-        <v>70858.59816854572</v>
+        <v>91978.50398169733</v>
       </c>
       <c r="AE4" t="n">
-        <v>96951.86007489174</v>
+        <v>125849.0469529165</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.202548531785186e-06</v>
+        <v>1.088405688504255e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.318865740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>87698.91062215829</v>
+        <v>113838.1905420101</v>
       </c>
     </row>
     <row r="5">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.83441174581168</v>
+        <v>79.47975026123463</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.182278910506</v>
+        <v>108.7477007064902</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.19365439696904</v>
+        <v>98.36897277944703</v>
       </c>
       <c r="AD5" t="n">
-        <v>68834.41174581168</v>
+        <v>79479.75026123463</v>
       </c>
       <c r="AE5" t="n">
-        <v>94182.27891050599</v>
+        <v>108747.7007064902</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.302236155446279e-06</v>
+        <v>1.109260962799788e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>85193.65439696904</v>
+        <v>98368.97277944704</v>
       </c>
     </row>
     <row r="6">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.99726092980512</v>
+        <v>79.64259944522806</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.40509634844464</v>
+        <v>108.9705181444289</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.39520645135714</v>
+        <v>98.57052483383514</v>
       </c>
       <c r="AD6" t="n">
-        <v>68997.26092980512</v>
+        <v>79642.59944522806</v>
       </c>
       <c r="AE6" t="n">
-        <v>94405.09634844464</v>
+        <v>108970.5181444288</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.292690961080166e-06</v>
+        <v>1.10726404844474e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.26099537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>85395.20645135714</v>
+        <v>98570.52483383514</v>
       </c>
     </row>
   </sheetData>
@@ -31891,28 +31891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.92699398815166</v>
+        <v>94.4577643939394</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.1501746033443</v>
+        <v>129.2412804261944</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.49654390438809</v>
+        <v>116.9066740136289</v>
       </c>
       <c r="AD2" t="n">
-        <v>73926.99398815166</v>
+        <v>94457.7643939394</v>
       </c>
       <c r="AE2" t="n">
-        <v>101150.1746033443</v>
+        <v>129241.2804261943</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.776023093274637e-06</v>
+        <v>1.03823853582845e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.738425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>91496.54390438809</v>
+        <v>116906.6740136289</v>
       </c>
     </row>
     <row r="3">
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.23639106301668</v>
+        <v>86.59656926821219</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.62755239572434</v>
+        <v>118.4852464437275</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.97818599166703</v>
+        <v>107.1771808182568</v>
       </c>
       <c r="AD3" t="n">
-        <v>66236.39106301668</v>
+        <v>86596.56926821219</v>
       </c>
       <c r="AE3" t="n">
-        <v>90627.55239572434</v>
+        <v>118485.2464437275</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.355445517364721e-06</v>
+        <v>1.164196613807716e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>81978.18599166704</v>
+        <v>107177.1808182568</v>
       </c>
     </row>
     <row r="4">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.49428197806816</v>
+        <v>74.75975668951305</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.24392188927041</v>
+        <v>102.2895972702438</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.82204583530188</v>
+        <v>92.52722167114888</v>
       </c>
       <c r="AD4" t="n">
-        <v>64494.28197806816</v>
+        <v>74759.75668951306</v>
       </c>
       <c r="AE4" t="n">
-        <v>88243.92188927041</v>
+        <v>102289.5972702438</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.478562754137509e-06</v>
+        <v>1.190960525360451e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.258101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>79822.04583530188</v>
+        <v>92527.22167114887</v>
       </c>
     </row>
   </sheetData>
@@ -32400,28 +32400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.35988901046476</v>
+        <v>75.21405149195344</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.11408656691064</v>
+        <v>102.9111834610146</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.75442637528261</v>
+        <v>93.08948454827441</v>
       </c>
       <c r="AD2" t="n">
-        <v>56359.88901046476</v>
+        <v>75214.05149195345</v>
       </c>
       <c r="AE2" t="n">
-        <v>77114.08656691064</v>
+        <v>102911.1834610146</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.687883742552675e-06</v>
+        <v>1.352878484704603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.370949074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>69754.42637528261</v>
+        <v>93089.48454827441</v>
       </c>
     </row>
     <row r="3">
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.7525342852546</v>
+        <v>75.6066967667433</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.6513211541648</v>
+        <v>103.4484180482688</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.24038804754289</v>
+        <v>93.5754462205347</v>
       </c>
       <c r="AD3" t="n">
-        <v>56752.5342852546</v>
+        <v>75606.69676674329</v>
       </c>
       <c r="AE3" t="n">
-        <v>77651.32115416481</v>
+        <v>103448.4180482688</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.663839795765055e-06</v>
+        <v>1.347159567130216e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.382523148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>70240.38804754289</v>
+        <v>93575.44622053471</v>
       </c>
     </row>
   </sheetData>
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.1662163232637</v>
+        <v>162.6506443721523</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.3626714678167</v>
+        <v>222.5457872698769</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.6263042260325</v>
+        <v>201.3063296778779</v>
       </c>
       <c r="AD2" t="n">
-        <v>128166.2163232637</v>
+        <v>162650.6443721523</v>
       </c>
       <c r="AE2" t="n">
-        <v>175362.6714678167</v>
+        <v>222545.7872698769</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.398256178356152e-06</v>
+        <v>6.594581840702456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.716435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>158626.3042260325</v>
+        <v>201306.3296778779</v>
       </c>
     </row>
     <row r="3">
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.4399413192092</v>
+        <v>118.486453921516</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.5851382259357</v>
+        <v>162.1183935087741</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.1222759110796</v>
+        <v>146.6460415669358</v>
       </c>
       <c r="AD3" t="n">
-        <v>95439.9413192092</v>
+        <v>118486.453921516</v>
       </c>
       <c r="AE3" t="n">
-        <v>130585.1382259357</v>
+        <v>162118.3935087741</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.181237711267807e-06</v>
+        <v>8.114018730549383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.833912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>118122.2759110796</v>
+        <v>146646.0415669358</v>
       </c>
     </row>
     <row r="4">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.73638617290565</v>
+        <v>113.7828987752125</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.1495265685584</v>
+        <v>155.6827818513968</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.3008699978427</v>
+        <v>140.8246356536988</v>
       </c>
       <c r="AD4" t="n">
-        <v>90736.38617290565</v>
+        <v>113782.8987752125</v>
       </c>
       <c r="AE4" t="n">
-        <v>124149.5265685584</v>
+        <v>155682.7818513968</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.416603012530036e-06</v>
+        <v>8.570763502035735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>112300.8699978427</v>
+        <v>140824.6356536988</v>
       </c>
     </row>
     <row r="5">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.74016537640325</v>
+        <v>108.6160857781179</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.313476857082</v>
+        <v>148.6133203650736</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.1172432763714</v>
+        <v>134.4298736495765</v>
       </c>
       <c r="AD5" t="n">
-        <v>85740.16537640325</v>
+        <v>108616.0857781179</v>
       </c>
       <c r="AE5" t="n">
-        <v>117313.476857082</v>
+        <v>148613.3203650736</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.665539624408705e-06</v>
+        <v>9.05384446298176e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.434606481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>106117.2432763714</v>
+        <v>134429.8736495765</v>
       </c>
     </row>
     <row r="6">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.42283576606913</v>
+        <v>107.2987561677838</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.5110483677429</v>
+        <v>146.8108918757345</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.48683603233</v>
+        <v>132.7994664055352</v>
       </c>
       <c r="AD6" t="n">
-        <v>84422.83576606913</v>
+        <v>107298.7561677838</v>
       </c>
       <c r="AE6" t="n">
-        <v>115511.0483677429</v>
+        <v>146810.8918757346</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.716999818542057e-06</v>
+        <v>9.153706993626812e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.396990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>104486.83603233</v>
+        <v>132799.4664055352</v>
       </c>
     </row>
     <row r="7">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.92194507616576</v>
+        <v>105.7978654778804</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.4574635111942</v>
+        <v>144.7573070191858</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.6292424322652</v>
+        <v>130.9418728054703</v>
       </c>
       <c r="AD7" t="n">
-        <v>82921.94507616575</v>
+        <v>105797.8654778804</v>
       </c>
       <c r="AE7" t="n">
-        <v>113457.4635111942</v>
+        <v>144757.3070191858</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.784911764728805e-06</v>
+        <v>9.285495435576038e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.350694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>102629.2424322652</v>
+        <v>130941.8728054703</v>
       </c>
     </row>
     <row r="8">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.26566544815444</v>
+        <v>104.1415858498691</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.19126865425</v>
+        <v>142.4911121622416</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.5793300318426</v>
+        <v>128.8919604050477</v>
       </c>
       <c r="AD8" t="n">
-        <v>81265.66544815444</v>
+        <v>104141.5858498691</v>
       </c>
       <c r="AE8" t="n">
-        <v>111191.26865425</v>
+        <v>142491.1121622416</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.837812179580636e-06</v>
+        <v>9.388152827143341e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.313078703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>100579.3300318426</v>
+        <v>128891.9604050477</v>
       </c>
     </row>
     <row r="9">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.3538450580879</v>
+        <v>103.2297654598026</v>
       </c>
       <c r="AB9" t="n">
-        <v>109.9436757698851</v>
+        <v>141.2435192778767</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.45080566135344</v>
+        <v>127.7634360345585</v>
       </c>
       <c r="AD9" t="n">
-        <v>80353.8450580879</v>
+        <v>103229.7654598026</v>
       </c>
       <c r="AE9" t="n">
-        <v>109943.6757698851</v>
+        <v>141243.5192778767</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.848281476341888e-06</v>
+        <v>9.40846931615509e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>99450.80566135344</v>
+        <v>127763.4360345585</v>
       </c>
     </row>
     <row r="10">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.64720077472599</v>
+        <v>91.17054658443045</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.9768138864442</v>
+        <v>124.7435639974119</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.5762197190687</v>
+        <v>112.8382133282234</v>
       </c>
       <c r="AD10" t="n">
-        <v>79647.20077472599</v>
+        <v>91170.54658443046</v>
       </c>
       <c r="AE10" t="n">
-        <v>108976.8138864442</v>
+        <v>124743.5639974119</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.862462111108452e-06</v>
+        <v>9.435987946774179e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.295717592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>98576.2197190687</v>
+        <v>112838.2133282234</v>
       </c>
     </row>
     <row r="11">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>79.81338180616346</v>
+        <v>91.33672761586794</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.2041901050466</v>
+        <v>124.9709402160142</v>
       </c>
       <c r="AC11" t="n">
-        <v>98.78189547049222</v>
+        <v>113.0438890796469</v>
       </c>
       <c r="AD11" t="n">
-        <v>79813.38180616347</v>
+        <v>91336.72761586795</v>
       </c>
       <c r="AE11" t="n">
-        <v>109204.1901050466</v>
+        <v>124970.9402160142</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.85985863519428e-06</v>
+        <v>9.430935698183956e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.298611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>98781.89547049222</v>
+        <v>113043.8890796469</v>
       </c>
     </row>
   </sheetData>
@@ -34054,28 +34054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.3962726735764</v>
+        <v>204.1861725853572</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.4072093911124</v>
+        <v>279.3765293893344</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.4174687054405</v>
+        <v>252.71322553192</v>
       </c>
       <c r="AD2" t="n">
-        <v>168396.2726735764</v>
+        <v>204186.1725853572</v>
       </c>
       <c r="AE2" t="n">
-        <v>230407.2093911124</v>
+        <v>279376.5293893344</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.882709038437152e-06</v>
+        <v>5.409092838895745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>208417.4687054405</v>
+        <v>252713.22553192</v>
       </c>
     </row>
     <row r="3">
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.9187227750938</v>
+        <v>148.8071328373218</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.919307525909</v>
+        <v>203.6044840553057</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.6070087024385</v>
+        <v>184.1727578578133</v>
       </c>
       <c r="AD3" t="n">
-        <v>124918.7227750938</v>
+        <v>148807.1328373218</v>
       </c>
       <c r="AE3" t="n">
-        <v>170919.307525909</v>
+        <v>203604.4840553057</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.674099543091706e-06</v>
+        <v>6.894051832127267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.204282407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>154607.0087024385</v>
+        <v>184172.7578578133</v>
       </c>
     </row>
     <row r="4">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.9920262865175</v>
+        <v>124.9656876947661</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.1817458189048</v>
+        <v>170.9835670009507</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.9938739372839</v>
+        <v>154.665135343371</v>
       </c>
       <c r="AD4" t="n">
-        <v>100992.0262865175</v>
+        <v>124965.6876947661</v>
       </c>
       <c r="AE4" t="n">
-        <v>138181.7458189048</v>
+        <v>170983.5670009507</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.103423287118186e-06</v>
+        <v>7.699631569248616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.764467592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>124993.8739372839</v>
+        <v>154665.135343371</v>
       </c>
     </row>
     <row r="5">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.57135560370165</v>
+        <v>121.5450170119503</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.5014332813386</v>
+        <v>166.3032544633845</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.7602438594417</v>
+        <v>150.4315052655287</v>
       </c>
       <c r="AD5" t="n">
-        <v>97571.35560370165</v>
+        <v>121545.0170119503</v>
       </c>
       <c r="AE5" t="n">
-        <v>133501.4332813386</v>
+        <v>166303.2544633845</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.258060970376263e-06</v>
+        <v>7.989792516462411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>120760.2438594417</v>
+        <v>150431.5052655287</v>
       </c>
     </row>
     <row r="6">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.69871523751415</v>
+        <v>119.6723766457628</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.9392041172598</v>
+        <v>163.7410252993058</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.4425502506705</v>
+        <v>148.1138116567576</v>
       </c>
       <c r="AD6" t="n">
-        <v>95698.71523751414</v>
+        <v>119672.3766457627</v>
       </c>
       <c r="AE6" t="n">
-        <v>130939.2041172598</v>
+        <v>163741.0252993058</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.334552444352383e-06</v>
+        <v>8.133320523834646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.561921296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>118442.5502506706</v>
+        <v>148113.8116567576</v>
       </c>
     </row>
     <row r="7">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.6593487538387</v>
+        <v>116.4624179614951</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.7806088069113</v>
+        <v>159.3490182141104</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.6808454401152</v>
+        <v>144.1409715635513</v>
       </c>
       <c r="AD7" t="n">
-        <v>92659.3487538387</v>
+        <v>116462.4179614951</v>
       </c>
       <c r="AE7" t="n">
-        <v>126780.6088069113</v>
+        <v>159349.0182141104</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.471094796362795e-06</v>
+        <v>8.38952753210972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>114680.8454401152</v>
+        <v>144140.9715635513</v>
       </c>
     </row>
     <row r="8">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.82324926257873</v>
+        <v>115.6263184702351</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.6366205968638</v>
+        <v>158.2050300040628</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.6460378592367</v>
+        <v>143.1061639826727</v>
       </c>
       <c r="AD8" t="n">
-        <v>91823.24926257873</v>
+        <v>115626.3184702351</v>
       </c>
       <c r="AE8" t="n">
-        <v>125636.6205968638</v>
+        <v>158205.0300040628</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.495061769018257e-06</v>
+        <v>8.434498973358939e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH8" t="n">
-        <v>113646.0378592367</v>
+        <v>143106.1639826727</v>
       </c>
     </row>
     <row r="9">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.92805017688886</v>
+        <v>114.7311193845453</v>
       </c>
       <c r="AB9" t="n">
-        <v>124.4117697144271</v>
+        <v>156.9801791216262</v>
       </c>
       <c r="AC9" t="n">
-        <v>112.5380850259304</v>
+        <v>141.9982111493665</v>
       </c>
       <c r="AD9" t="n">
-        <v>90928.05017688886</v>
+        <v>114731.1193845453</v>
       </c>
       <c r="AE9" t="n">
-        <v>124411.7697144271</v>
+        <v>156980.1791216262</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.517961170508666e-06</v>
+        <v>8.477467232369889e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.417245370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>112538.0850259304</v>
+        <v>141998.2111493665</v>
       </c>
     </row>
     <row r="10">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.46770377302506</v>
+        <v>113.2707729806815</v>
       </c>
       <c r="AB10" t="n">
-        <v>122.4136593387253</v>
+        <v>154.9820687459244</v>
       </c>
       <c r="AC10" t="n">
-        <v>110.7306715001194</v>
+        <v>140.1907976235554</v>
       </c>
       <c r="AD10" t="n">
-        <v>89467.70377302506</v>
+        <v>113270.7729806815</v>
       </c>
       <c r="AE10" t="n">
-        <v>122413.6593387253</v>
+        <v>154982.0687459244</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.565841737261339e-06</v>
+        <v>8.567309955756417e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.382523148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>110730.6715001194</v>
+        <v>140190.7976235554</v>
       </c>
     </row>
     <row r="11">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.44620641467476</v>
+        <v>112.2492756223312</v>
       </c>
       <c r="AB11" t="n">
-        <v>121.0160015877482</v>
+        <v>153.5844109949473</v>
       </c>
       <c r="AC11" t="n">
-        <v>109.4664042432701</v>
+        <v>138.9265303667062</v>
       </c>
       <c r="AD11" t="n">
-        <v>88446.20641467476</v>
+        <v>112249.2756223312</v>
       </c>
       <c r="AE11" t="n">
-        <v>121016.0015877482</v>
+        <v>153584.4109949473</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.59904320049452e-06</v>
+        <v>8.629608923366697e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH11" t="n">
-        <v>109466.4042432701</v>
+        <v>138926.5303667062</v>
       </c>
     </row>
     <row r="12">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>87.75942264977684</v>
+        <v>111.5624918574333</v>
       </c>
       <c r="AB12" t="n">
-        <v>120.076313741854</v>
+        <v>152.6447231490531</v>
       </c>
       <c r="AC12" t="n">
-        <v>108.6163988865276</v>
+        <v>138.0765250099637</v>
       </c>
       <c r="AD12" t="n">
-        <v>87759.42264977684</v>
+        <v>111562.4918574333</v>
       </c>
       <c r="AE12" t="n">
-        <v>120076.313741854</v>
+        <v>152644.7231490531</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.58895465298476e-06</v>
+        <v>8.61067885121502e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.365162037037038</v>
       </c>
       <c r="AH12" t="n">
-        <v>108616.3988865276</v>
+        <v>138076.5250099637</v>
       </c>
     </row>
     <row r="13">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>86.61663331588197</v>
+        <v>110.4197025235384</v>
       </c>
       <c r="AB13" t="n">
-        <v>118.5126989589127</v>
+        <v>151.0811083661117</v>
       </c>
       <c r="AC13" t="n">
-        <v>107.2020133039225</v>
+        <v>136.6621394273586</v>
       </c>
       <c r="AD13" t="n">
-        <v>86616.63331588198</v>
+        <v>110419.7025235384</v>
       </c>
       <c r="AE13" t="n">
-        <v>118512.6989589127</v>
+        <v>151081.1083661117</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.620981787936381e-06</v>
+        <v>8.6707743183632e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.342013888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>107202.0133039225</v>
+        <v>136662.1394273586</v>
       </c>
     </row>
     <row r="14">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>86.20590660748013</v>
+        <v>110.0089758151366</v>
       </c>
       <c r="AB14" t="n">
-        <v>117.950724556494</v>
+        <v>150.5191339636931</v>
       </c>
       <c r="AC14" t="n">
-        <v>106.6936729497345</v>
+        <v>136.1537990731705</v>
       </c>
       <c r="AD14" t="n">
-        <v>86205.90660748014</v>
+        <v>110008.9758151366</v>
       </c>
       <c r="AE14" t="n">
-        <v>117950.724556494</v>
+        <v>150519.1339636931</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.61799258867423e-06</v>
+        <v>8.665165408096038e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.344907407407408</v>
       </c>
       <c r="AH14" t="n">
-        <v>106693.6729497345</v>
+        <v>136153.7990731706</v>
       </c>
     </row>
     <row r="15">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>85.90708283361975</v>
+        <v>109.7101520412762</v>
       </c>
       <c r="AB15" t="n">
-        <v>117.541860685924</v>
+        <v>150.1102700931231</v>
       </c>
       <c r="AC15" t="n">
-        <v>106.3238304731275</v>
+        <v>135.7839565965635</v>
       </c>
       <c r="AD15" t="n">
-        <v>85907.08283361976</v>
+        <v>109710.1520412762</v>
       </c>
       <c r="AE15" t="n">
-        <v>117541.860685924</v>
+        <v>150110.2700931231</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.645215653383107e-06</v>
+        <v>8.716246555171991e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.324652777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>106323.8304731275</v>
+        <v>135783.9565965635</v>
       </c>
     </row>
   </sheetData>
@@ -35729,28 +35729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.56273737863128</v>
+        <v>70.88312330509783</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.91865618573155</v>
+        <v>96.98541644869498</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.05484057784926</v>
+        <v>87.72926442274242</v>
       </c>
       <c r="AD2" t="n">
-        <v>52562.73737863128</v>
+        <v>70883.12330509782</v>
       </c>
       <c r="AE2" t="n">
-        <v>71918.65618573155</v>
+        <v>96985.41644869497</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.620195557592379e-06</v>
+        <v>1.40556825755298e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.530092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>65054.84057784926</v>
+        <v>87729.26442274242</v>
       </c>
     </row>
   </sheetData>
@@ -36026,28 +36026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.02046345454742</v>
+        <v>120.5631060572124</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.4841665729912</v>
+        <v>164.9597605762588</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.5537478685232</v>
+        <v>149.2162325493843</v>
       </c>
       <c r="AD2" t="n">
-        <v>99020.46345454743</v>
+        <v>120563.1060572124</v>
       </c>
       <c r="AE2" t="n">
-        <v>135484.1665729912</v>
+        <v>164959.7605762588</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.219619678105366e-06</v>
+        <v>8.6893930026765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>122553.7478685232</v>
+        <v>149216.2325493843</v>
       </c>
     </row>
     <row r="3">
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.39752496987401</v>
+        <v>98.85482671796736</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8987082015554</v>
+        <v>135.2575350826254</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.79188412059622</v>
+        <v>122.3487457695185</v>
       </c>
       <c r="AD3" t="n">
-        <v>77397.52496987401</v>
+        <v>98854.82671796736</v>
       </c>
       <c r="AE3" t="n">
-        <v>105898.7082015554</v>
+        <v>135257.5350826254</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.870343032619323e-06</v>
+        <v>1.002941684243891e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.492476851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>95791.88412059622</v>
+        <v>122348.7457695185</v>
       </c>
     </row>
     <row r="4">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.48598816331172</v>
+        <v>94.94328991140506</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.5467709779947</v>
+        <v>129.9055978590646</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.95072827415933</v>
+        <v>117.5075899230817</v>
       </c>
       <c r="AD4" t="n">
-        <v>73485.98816331172</v>
+        <v>94943.28991140507</v>
       </c>
       <c r="AE4" t="n">
-        <v>100546.7709779947</v>
+        <v>129905.5978590646</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.115429821395968e-06</v>
+        <v>1.05341200123702e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.324652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>90950.72827415934</v>
+        <v>117507.5899230817</v>
       </c>
     </row>
     <row r="5">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.60451710765763</v>
+        <v>82.41855359055145</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.97245927500524</v>
+        <v>112.768701072512</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.62210526703325</v>
+        <v>102.0062145140465</v>
       </c>
       <c r="AD5" t="n">
-        <v>71604.51710765762</v>
+        <v>82418.55359055146</v>
       </c>
       <c r="AE5" t="n">
-        <v>97972.45927500524</v>
+        <v>112768.701072512</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.191089859092188e-06</v>
+        <v>1.06899254764387e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.275462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>88622.10526703324</v>
+        <v>102006.2145140465</v>
       </c>
     </row>
     <row r="6">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.50349821370517</v>
+        <v>81.31753469659898</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.46599665077478</v>
+        <v>111.2622384482816</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.25941732132527</v>
+        <v>100.6435265683385</v>
       </c>
       <c r="AD6" t="n">
-        <v>70503.49821370517</v>
+        <v>81317.53469659899</v>
       </c>
       <c r="AE6" t="n">
-        <v>96465.99665077479</v>
+        <v>111262.2384482816</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.244116552178429e-06</v>
+        <v>1.079912246834995e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.24363425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>87259.41732132528</v>
+        <v>100643.5265683385</v>
       </c>
     </row>
     <row r="7">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.77419033810457</v>
+        <v>81.5882268209984</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.83636955747157</v>
+        <v>111.6326113549784</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.59444235762869</v>
+        <v>100.9785516046419</v>
       </c>
       <c r="AD7" t="n">
-        <v>70774.19033810457</v>
+        <v>81588.2268209984</v>
       </c>
       <c r="AE7" t="n">
-        <v>96836.36955747157</v>
+        <v>111632.6113549784</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.236709275760617e-06</v>
+        <v>1.078386878655304e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.249421296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>87594.44235762869</v>
+        <v>100978.5516046419</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0583891479743</v>
+        <v>138.4957524595005</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7962081669582</v>
+        <v>189.495998516381</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.6409209314253</v>
+        <v>171.4107663773354</v>
       </c>
       <c r="AD2" t="n">
-        <v>116058.3891479743</v>
+        <v>138495.7524595005</v>
       </c>
       <c r="AE2" t="n">
-        <v>158796.2081669582</v>
+        <v>189495.998516381</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.693046888754414e-06</v>
+        <v>7.316605820069247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>143640.9209314253</v>
+        <v>171410.7663773354</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.33135884745113</v>
+        <v>110.8539735049979</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.8588620795559</v>
+        <v>151.6752970816279</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3242619091929</v>
+        <v>137.1996196058152</v>
       </c>
       <c r="AD3" t="n">
-        <v>88331.35884745113</v>
+        <v>110853.9735049979</v>
       </c>
       <c r="AE3" t="n">
-        <v>120858.8620795559</v>
+        <v>151675.2970816279</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.427433894970521e-06</v>
+        <v>8.771561688684355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109324.2619091929</v>
+        <v>137199.6196058152</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.66735114229417</v>
+        <v>106.0193735992488</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.4773609758653</v>
+        <v>145.0603842030905</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.5518023143435</v>
+        <v>131.2160247283147</v>
       </c>
       <c r="AD4" t="n">
-        <v>83667.35114229417</v>
+        <v>106019.3735992488</v>
       </c>
       <c r="AE4" t="n">
-        <v>114477.3609758653</v>
+        <v>145060.3842030904</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.684907998344476e-06</v>
+        <v>9.281665291484365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.49537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>103551.8023143435</v>
+        <v>131216.0247283147</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.23760350459425</v>
+        <v>103.5896259615488</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.1528730650654</v>
+        <v>141.7358962922906</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.5445988638012</v>
+        <v>128.2088212777724</v>
       </c>
       <c r="AD5" t="n">
-        <v>81237.60350459424</v>
+        <v>103589.6259615488</v>
       </c>
       <c r="AE5" t="n">
-        <v>111152.8730650654</v>
+        <v>141735.8962922906</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.804560725214676e-06</v>
+        <v>9.518719372891094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.408564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>100544.5988638012</v>
+        <v>128208.8212777724</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.08007123471198</v>
+        <v>101.4320936916666</v>
       </c>
       <c r="AB6" t="n">
-        <v>108.200842229808</v>
+        <v>138.7838654570332</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.8743057082585</v>
+        <v>125.5385281222297</v>
       </c>
       <c r="AD6" t="n">
-        <v>79080.07123471198</v>
+        <v>101432.0936916666</v>
       </c>
       <c r="AE6" t="n">
-        <v>108200.842229808</v>
+        <v>138783.8654570332</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.908252208481567e-06</v>
+        <v>9.724151292066652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.336226851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>97874.3057082585</v>
+        <v>125538.5281222297</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.61258970055927</v>
+        <v>99.96461215751388</v>
       </c>
       <c r="AB7" t="n">
-        <v>106.1929692540651</v>
+        <v>136.7759924812903</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.0580613112525</v>
+        <v>123.7222837252237</v>
       </c>
       <c r="AD7" t="n">
-        <v>77612.58970055927</v>
+        <v>99964.61215751388</v>
       </c>
       <c r="AE7" t="n">
-        <v>106192.9692540651</v>
+        <v>136775.9924812903</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.949117520118409e-06</v>
+        <v>9.80511299820462e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.310185185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>96058.0613112525</v>
+        <v>123722.2837252237</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.13885609725106</v>
+        <v>87.40025293457552</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1765419214819</v>
+        <v>119.5848818920663</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.23407897321685</v>
+        <v>108.1718686027545</v>
       </c>
       <c r="AD8" t="n">
-        <v>76138.85609725106</v>
+        <v>87400.25293457552</v>
       </c>
       <c r="AE8" t="n">
-        <v>104176.5419214819</v>
+        <v>119584.8818920663</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.007019478296373e-06</v>
+        <v>9.919827437787915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>94234.07897321685</v>
+        <v>108171.8686027545</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.32264380086065</v>
+        <v>87.58404063818509</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.4280083657016</v>
+        <v>119.8363483362861</v>
       </c>
       <c r="AC9" t="n">
-        <v>94.4615458129357</v>
+        <v>108.3993354424734</v>
       </c>
       <c r="AD9" t="n">
-        <v>76322.64380086065</v>
+        <v>87584.04063818509</v>
       </c>
       <c r="AE9" t="n">
-        <v>104428.0083657016</v>
+        <v>119836.3483362861</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.00220846515353e-06</v>
+        <v>9.910295934987737e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.275462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>94461.5458129357</v>
+        <v>108399.3354424734</v>
       </c>
     </row>
   </sheetData>
